--- a/excel/stray_2021.xlsx
+++ b/excel/stray_2021.xlsx
@@ -1,3 +1,315 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Stray Rongve\Google Drive\Enkeltpersonsforetak\Regnskap\Fakturagenerator\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA53B6B-0EB4-4DB7-9B33-F5987956F2F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="hour_register" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="Students" sheetId="4" r:id="rId4"/>
+    <sheet name="Costumers" sheetId="5" r:id="rId5"/>
+    <sheet name="Company" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+  <si>
+    <t>Navn</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Hourly_rate</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>MVA_cost</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Undervising</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Anette Evensen</t>
+  </si>
+  <si>
+    <t>anetteengerevensen@gmail.com</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Postalcode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Kundenummer</t>
+  </si>
+  <si>
+    <t>Realfagspesialisten</t>
+  </si>
+  <si>
+    <t>Kikkutveien 4A</t>
+  </si>
+  <si>
+    <t>0491 Oslo</t>
+  </si>
+  <si>
+    <t>info@realfagspesialisten.com</t>
+  </si>
+  <si>
+    <t>Orgno</t>
+  </si>
+  <si>
+    <t>Account_number</t>
+  </si>
+  <si>
+    <t>Anna Stray Rongve</t>
+  </si>
+  <si>
+    <t>Hafslundveien 8</t>
+  </si>
+  <si>
+    <t>0373 Oslo</t>
+  </si>
+  <si>
+    <t>anna.stray.rongve@gmail.com</t>
+  </si>
+  <si>
+    <t>93649449</t>
+  </si>
+  <si>
+    <t>1506.42.37524</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
@@ -295,83 +607,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="11.453125" customWidth="1" style="11" min="2" max="2"/>
-    <col width="13.08984375" customWidth="1" style="3" min="3" max="3"/>
-    <col width="9.90625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="17.7265625" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" s="12" t="inlineStr">
-        <is>
-          <t>Costumer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Nora</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>44223</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nora</t>
-        </is>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <f>2 + 1/4</f>
-        <v/>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>03.02.2021</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -379,109 +672,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Hourly_rate</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Netto</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>MVA</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MVA_cost</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sum</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Undervising</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="e" cm="1">
+        <f t="array" ref="B2">SUMPRODUCT((MONTH(hour_register!B:B)=1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2">
         <v>247.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f>B2*C2</f>
-        <v/>
-      </c>
-      <c r="F2" s="8" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="e">
         <f>E2*F2</f>
-        <v/>
-      </c>
-      <c r="H2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="e">
         <f>E2+G2</f>
-        <v/>
-      </c>
-      <c r="I2" s="3" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" s="3">
         <v>44228</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="e">
         <f>H2</f>
-        <v/>
-      </c>
-      <c r="K2" s="3" t="n"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -489,104 +757,261 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Hourly_rate</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Netto</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>MVA</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MVA_cost</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sum</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Undervising</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="e" cm="1">
+        <f t="array" ref="B2">MÅNED</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C2">
         <v>247.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f>B2*C2</f>
-        <v/>
-      </c>
-      <c r="F2" s="8" t="n">
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="8">
         <v>0</v>
       </c>
+      <c r="G2" t="e">
+        <f>E2*F2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H2" t="e">
+        <f>E2+G2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44228</v>
+      </c>
+      <c r="J2" s="2" t="e">
+        <f>H2</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>95338955</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
       <c r="G2">
-        <f>E2*F2</f>
-        <v/>
-      </c>
-      <c r="H2">
-        <f>E2+G2</f>
-        <v/>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>44228</v>
-      </c>
-      <c r="J2" s="2">
-        <f>H2</f>
-        <v/>
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>924881682</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/excel/stray_2021.xlsx
+++ b/excel/stray_2021.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna Stray Rongve\Google Drive\Enkeltpersonsforetak\Regnskap\Fakturagenerator\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD84FE2-3E15-4A05-A3BE-FE870D1D3FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236D91A-2017-4EAD-93FA-DAAA73B60950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42960" yWindow="1275" windowWidth="14415" windowHeight="7815" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hour_register" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
-    <sheet name="Students" sheetId="4" r:id="rId4"/>
-    <sheet name="Costumers" sheetId="5" r:id="rId5"/>
-    <sheet name="Company" sheetId="6" r:id="rId6"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
+    <sheet name="9" sheetId="10" r:id="rId10"/>
+    <sheet name="10" sheetId="11" r:id="rId11"/>
+    <sheet name="11" sheetId="12" r:id="rId12"/>
+    <sheet name="12" sheetId="13" r:id="rId13"/>
+    <sheet name="Students" sheetId="14" r:id="rId14"/>
+    <sheet name="Costumers" sheetId="15" r:id="rId15"/>
+    <sheet name="Company" sheetId="16" r:id="rId16"/>
+    <sheet name="Rental" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -61,6 +72,15 @@
     <t>03.02.2021</t>
   </si>
   <si>
+    <t>08.02.2021</t>
+  </si>
+  <si>
+    <t>10.02.2021</t>
+  </si>
+  <si>
+    <t>15.02.2021</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -103,6 +123,18 @@
     <t>anetteengerevensen@gmail.com</t>
   </si>
   <si>
+    <t>Nora Bull</t>
+  </si>
+  <si>
+    <t>nora.bull.langehaug@outlook.com</t>
+  </si>
+  <si>
+    <t>Hannah Schonemann</t>
+  </si>
+  <si>
+    <t>hasc1450@gmail.com; schonemanhannah@gmail.com</t>
+  </si>
+  <si>
     <t>Adress</t>
   </si>
   <si>
@@ -151,16 +183,25 @@
     <t>1506.42.37524</t>
   </si>
   <si>
-    <t>Nora Bull</t>
-  </si>
-  <si>
-    <t>hasc1450@gmail.com; schonemanhannah@gmail.com</t>
-  </si>
-  <si>
-    <t>Hannah Schonemann</t>
-  </si>
-  <si>
-    <t>nora.bull.langehaug@outlook.com</t>
+    <t>Nedbetaling</t>
+  </si>
+  <si>
+    <t>Utleie snowboard dag</t>
+  </si>
+  <si>
+    <t>Utleie snowboard helg</t>
+  </si>
+  <si>
+    <t>Utleie snowboard uke</t>
+  </si>
+  <si>
+    <t>Utleie skredsøker dag</t>
+  </si>
+  <si>
+    <t>Utleie skredsøker helg</t>
+  </si>
+  <si>
+    <t>Utleie skredsøker uke</t>
   </si>
 </sst>
 </file>
@@ -277,14 +318,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,16 +657,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -673,186 +714,107 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K2"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <f>SUM(hour_register!B2)</f>
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>247.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>B2*C2</f>
-        <v>495</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>E2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>E2+G2</f>
-        <v>495</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44228</v>
-      </c>
-      <c r="J2">
-        <f>H2</f>
-        <v>495</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <f>SUM(hour_register!B3:B4)</f>
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>247.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>B2*C2</f>
-        <v>742.5</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>E2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>E2+G2</f>
-        <v>742.5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44228</v>
-      </c>
-      <c r="J2" s="2">
-        <f>H2</f>
-        <v>742.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -877,35 +839,38 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>95338955</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>95493224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>92270270</v>
@@ -913,22 +878,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" display="hasc1450@gmail.com" xr:uid="{31D55AE2-ADDF-4516-A3A0-8EAC5F23D216}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{F7BF6BEB-DA36-41C7-9B64-E616AF6B989A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="hasc1450@gmail.com" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" display="hasc1450@gmail.com" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
+    <hyperlink ref="C4" r:id="rId9" display="hasc1450@gmail.com" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -966,40 +935,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <f>A2+1</f>
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1008,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1031,28 +1006,440 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>924881682</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1">
+        <f>1500-J2</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2+G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44256</v>
+      </c>
+      <c r="J2">
+        <f>SUM(H2:H4)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>B3*C3</f>
+        <v>200</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>E3+G3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>B4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>E4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>E4+G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>SUM(hour_register!B2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>247.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>495</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2+G2</f>
+        <v>495</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44228</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>495</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>SUM(hour_register!B3:B7)</f>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>247.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>1980</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2+G2</f>
+        <v>1980</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44256</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F3" s="8"/>
+      <c r="I3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/stray_2021.xlsx
+++ b/excel/stray_2021.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-1755" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="hour_register" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="11" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="12" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Students" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Costumers" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Company" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Rental" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Ark1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Costumers" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Company" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Rental" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -34,7 +35,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,6 +62,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -72,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -124,6 +130,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -134,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -146,9 +167,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -159,10 +177,14 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -543,37 +565,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="11.453125" customWidth="1" min="2" max="2"/>
+    <col width="11.453125" customWidth="1" style="12" min="2" max="2"/>
     <col width="13.08984375" customWidth="1" style="3" min="3" max="3"/>
     <col width="9.90625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="17.7265625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="17.7265625" bestFit="1" customWidth="1" style="12" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Hours</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="13" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Costumer</t>
         </is>
@@ -717,7 +739,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -796,105 +817,207 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="14.6328125" bestFit="1" customWidth="1" style="12" min="1" max="1"/>
+    <col width="30" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="8.81640625" bestFit="1" customWidth="1" style="12" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="14" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="C1" s="14" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Stian Oppegaard</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>stian.oppegaard@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>91821570</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>Nora Bull</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>nora.bull.langehaug@outlook.com</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>95493224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Hannah Schonemann</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>schonemannhannah@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>92270270</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n"/>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="8" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="8" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="18.81640625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="47.26953125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" style="12" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
+      <c r="A1" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Anette Evensen</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>anetteengerevensen@gmail.com</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>95338955</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>0</v>
+      <c r="A2" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anette Evensen</t>
+          <t>Nora Bull</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
         <is>
-          <t>anetteengerevensen@gmail.com</t>
+          <t>nora.bull.langehaug@outlook.com</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>95338955</v>
+        <v>95493224</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
+      <c r="A3" s="8" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nora Bull</t>
+          <t>Hannah Schonemann</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>nora.bull.langehaug@outlook.com</t>
+          <t>hasc1450@gmail.com; schonemanhannah@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>95493224</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hannah Schonemann</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>hasc1450@gmail.com; schonemanhannah@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
         <v>92270270</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stian Oppegaard</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>stian.oppegaard@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>91821570</v>
+      </c>
+      <c r="D8" t="n">
+        <v>91821570</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" display="hasc1450@gmail.com" r:id="rId3"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" display="hasc1450@gmail.com" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -908,12 +1031,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="5.90625" customWidth="1" min="1" max="1"/>
-    <col width="17.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13.6328125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="26.54296875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="11.1796875" customWidth="1" min="6" max="6"/>
-    <col width="13.36328125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="5.90625" customWidth="1" style="12" min="1" max="1"/>
+    <col width="17.453125" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="13.6328125" bestFit="1" customWidth="1" style="12" min="3" max="3"/>
+    <col width="26.54296875" bestFit="1" customWidth="1" style="12" min="5" max="5"/>
+    <col width="11.1796875" customWidth="1" style="12" min="6" max="6"/>
+    <col width="13.36328125" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,12 +1060,12 @@
           <t>Mail</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Kundenummer</t>
         </is>
@@ -987,7 +1110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1001,11 +1124,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="27" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9.81640625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="15.54296875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="16.7265625" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" style="12" min="3" max="3"/>
+    <col width="27" bestFit="1" customWidth="1" style="12" min="5" max="5"/>
+    <col width="9.81640625" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
+    <col width="15.54296875" bestFit="1" customWidth="1" style="12" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1088,7 +1211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,8 +1225,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="20.26953125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.453125" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="20.26953125" bestFit="1" customWidth="1" style="12" min="1" max="1"/>
+    <col width="11.453125" bestFit="1" customWidth="1" style="12" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1186,7 +1309,7 @@
         <f>B2*C2</f>
         <v/>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G2">
@@ -1224,7 +1347,7 @@
         <f>B3*C3</f>
         <v/>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G3">
@@ -1252,7 +1375,7 @@
         <f>B4*C4</f>
         <v/>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G4">
@@ -1376,7 +1499,7 @@
         <f>B2*C2</f>
         <v/>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G2">
@@ -1415,7 +1538,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.08984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.08984375" bestFit="1" customWidth="1" style="12" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1490,7 +1613,7 @@
         <f>B2*C2</f>
         <v/>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G2">
@@ -1510,7 +1633,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="F3" s="8" t="n"/>
+      <c r="F3" s="7" t="n"/>
       <c r="I3" s="3" t="n"/>
     </row>
   </sheetData>
